--- a/documentation/CSAT Feedback Structure for DB.xlsx
+++ b/documentation/CSAT Feedback Structure for DB.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edikeman\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\WEBSITE_PROJECTS\_REPOS\_ASP.NET\CustomerFeedback\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDAFD230-AD6A-48B0-9EB6-87CA60394CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2284D60-5E71-4C83-85DA-DDDB5F191F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{65A720A9-0869-47F5-982B-4C93D77E8D45}"/>
+    <workbookView xWindow="1410" yWindow="1410" windowWidth="14010" windowHeight="8565" firstSheet="1" activeTab="2" xr2:uid="{65A720A9-0869-47F5-982B-4C93D77E8D45}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey Tracking and Scheduling" sheetId="1" r:id="rId1"/>
-    <sheet name="Customer Contact" sheetId="2" r:id="rId2"/>
+    <sheet name="All Survey" sheetId="7" r:id="rId2"/>
     <sheet name="Survery Questions" sheetId="4" r:id="rId3"/>
     <sheet name="Combined Questions" sheetId="6" r:id="rId4"/>
-    <sheet name="All Survey" sheetId="7" r:id="rId5"/>
+    <sheet name="Customer Contact" sheetId="2" r:id="rId5"/>
     <sheet name="Survery Answer Key" sheetId="3" r:id="rId6"/>
     <sheet name="Survey Results" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1062,17 +1064,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1399,20 +1391,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.265625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1465,7 +1457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1524,71 +1516,1760 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B99C9A8-BDDE-4AC1-9E20-55BCDCE4FB99}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E587CC-8B7F-4D6B-A6D2-CE9BBF242BFF}">
+  <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="128.73046875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.59765625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="68.59765625" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
+    <row r="1" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E46" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E52" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E54" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E56" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E58" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E61" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E62" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E63" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E64" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D65" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E66" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A67" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B67" s="29"/>
+      <c r="C67" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E67" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A68" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="B68" s="29"/>
+      <c r="C68" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E68" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A69" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B69" s="29"/>
+      <c r="C69" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E69" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E70" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E71" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C72" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E72" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E73" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E74" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E75" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E76" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E77" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E78" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D79" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E79" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E80" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E81" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A82" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E82" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A83" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C83" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E83" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A84" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E84" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A85" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E85" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A86" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C86" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E86" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A87" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C87" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E87" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A88" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D88" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E88" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A89" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E89" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A90" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C90" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D90" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E90" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A91" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C91" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D91" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E91" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A92" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C92" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E92" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A93" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D93" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E93" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A94" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D94" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E94" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A95" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D95" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E95" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A96" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C96" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D96" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E96" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A97" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D97" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E97" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A98" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C98" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D98" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E98" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A99" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E99" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A100" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E100" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A101" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C101" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D101" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E101" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A102" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="C102" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D102" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E102" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A103" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C103" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D103" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E103" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A104" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E104" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A105" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C105" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E105" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A106" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E106" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A107" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D107" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E107" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A108" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C108" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="D108" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E108" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A109" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="D109" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E109" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A110" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C110" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="D110" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E110" s="28">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A112" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="B112" s="30"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A113" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C113" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D113" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E113" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A114" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="D114" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E114" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A115" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C115" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="D115" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E115" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A116" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="C116" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D116" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E116" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A117" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C117" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D117" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E117" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A118" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C118" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="D118" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E118" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A119" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="C119" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D119" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E119" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A120" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C120" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D120" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E120" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A121" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="C121" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D121" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E121" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A122" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C122" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D122" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E122" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A123" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C123" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D123" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E123" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A124" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C124" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D124" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E124" s="28">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A125" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="C125" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D125" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E125" s="28">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A67:B69">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1597,23 +3278,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB032CAA-BD0C-4DC9-A38A-BDE275360C9C}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.86328125" customWidth="1"/>
+    <col min="4" max="4" width="26.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1639,7 +3320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1665,7 +3346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1679,7 +3360,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1693,7 +3374,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1707,7 +3388,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1721,7 +3402,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>49</v>
       </c>
@@ -1729,52 +3410,52 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>74</v>
       </c>
@@ -1788,18 +3469,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7D6312-74BD-4D33-BB88-1BF62A8A66E0}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="83.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="83.73046875" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="93" customWidth="1"/>
-    <col min="4" max="4" width="128.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="128.73046875" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
         <v>173</v>
       </c>
@@ -1813,7 +3494,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
         <v>76</v>
       </c>
@@ -1827,7 +3508,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="25" t="s">
         <v>77</v>
       </c>
@@ -1841,7 +3522,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="25" t="s">
         <v>78</v>
       </c>
@@ -1855,7 +3536,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="25" t="s">
         <v>79</v>
       </c>
@@ -1869,7 +3550,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="25" t="s">
         <v>80</v>
       </c>
@@ -1883,7 +3564,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="20" t="s">
         <v>81</v>
       </c>
@@ -1897,7 +3578,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>82</v>
       </c>
@@ -1911,7 +3592,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>83</v>
       </c>
@@ -1925,7 +3606,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>84</v>
       </c>
@@ -1939,7 +3620,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>85</v>
       </c>
@@ -1953,7 +3634,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>86</v>
       </c>
@@ -1967,7 +3648,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>87</v>
       </c>
@@ -1981,7 +3662,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>88</v>
       </c>
@@ -1995,7 +3676,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="21" t="s">
         <v>89</v>
       </c>
@@ -2009,7 +3690,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="25.5" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
         <v>90</v>
       </c>
@@ -2023,7 +3704,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>91</v>
       </c>
@@ -2037,7 +3718,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>92</v>
       </c>
@@ -2051,7 +3732,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>93</v>
       </c>
@@ -2065,7 +3746,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
         <v>94</v>
       </c>
@@ -2079,7 +3760,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="21" t="s">
         <v>95</v>
       </c>
@@ -2093,7 +3774,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>96</v>
       </c>
@@ -2104,7 +3785,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>97</v>
       </c>
@@ -2115,7 +3796,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>98</v>
       </c>
@@ -2126,7 +3807,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="22" t="s">
         <v>99</v>
       </c>
@@ -2137,7 +3818,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
         <v>100</v>
       </c>
@@ -2148,7 +3829,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>101</v>
       </c>
@@ -2159,7 +3840,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
         <v>102</v>
       </c>
@@ -2170,7 +3851,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>103</v>
       </c>
@@ -2181,7 +3862,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
         <v>104</v>
       </c>
@@ -2192,7 +3873,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="22" t="s">
         <v>105</v>
       </c>
@@ -2203,7 +3884,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
         <v>106</v>
       </c>
@@ -2214,7 +3895,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>107</v>
       </c>
@@ -2225,7 +3906,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
         <v>108</v>
       </c>
@@ -2236,7 +3917,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
         <v>109</v>
       </c>
@@ -2247,7 +3928,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="25.5" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
         <v>110</v>
       </c>
@@ -2255,7 +3936,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>111</v>
       </c>
@@ -2263,7 +3944,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="22" t="s">
         <v>112</v>
       </c>
@@ -2271,7 +3952,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="23" t="s">
         <v>113</v>
       </c>
@@ -2279,12 +3960,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="24" t="s">
         <v>115</v>
       </c>
@@ -2295,1760 +3976,71 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E587CC-8B7F-4D6B-A6D2-CE9BBF242BFF}">
-  <dimension ref="A1:E125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B99C9A8-BDDE-4AC1-9E20-55BCDCE4FB99}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="128.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.85546875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="68.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="28"/>
+    <col min="1" max="1" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="E6" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="E8" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="E10" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="E11" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="E12" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="E14" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="E18" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="E19" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="E25" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="E26" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="E27" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="E28" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="E29" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="E30" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="E31" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E33" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="E34" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="E36" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="E37" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="E38" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D39" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="E39" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="E40" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="E41" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E42" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E43" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E44" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="E45" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D46" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="E46" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="E47" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="E48" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D49" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="E49" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D50" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="E50" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="E51" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D52" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E52" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C53" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D53" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="E53" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="E54" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E55" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E56" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E58" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D59" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E59" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E60" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E61" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="D62" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E62" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="D63" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E63" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E64" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="D65" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E65" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="D66" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E66" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E67" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="B68" s="29"/>
-      <c r="C68" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D68" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E68" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="B69" s="29"/>
-      <c r="C69" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="D69" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E69" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="C70" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D70" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E70" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C71" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E71" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="C72" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E72" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C73" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D73" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E73" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C74" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D74" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E74" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C75" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D75" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E75" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C76" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D76" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E76" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C77" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D77" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E77" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D78" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E78" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="C79" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D79" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E79" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C80" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="D80" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E80" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="C81" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="D81" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E81" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C82" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="D82" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E82" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C83" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="D83" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E83" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C84" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="D84" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E84" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="C85" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="D85" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E85" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="C86" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="D86" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E86" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="C87" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="D87" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E87" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="C88" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="D88" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E88" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C89" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="D89" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E89" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="C90" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="D90" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E90" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="C91" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="D91" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E91" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="C92" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="D92" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E92" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C93" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="D93" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E93" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C94" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="D94" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E94" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C95" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="D95" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E95" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="C96" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="D96" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E96" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="C97" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D97" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E97" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C98" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D98" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E98" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="C99" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D99" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E99" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="C100" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D100" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E100" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C101" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D101" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E101" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="C102" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="D102" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E102" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C103" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="D103" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E103" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C104" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="D104" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E104" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C105" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="D105" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E105" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="C106" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="D106" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E106" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="C107" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="D107" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E107" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="C108" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="D108" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E108" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="C109" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="D109" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E109" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="C110" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="D110" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E110" s="28">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="B112" s="30"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="C113" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="D113" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E113" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="C114" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D114" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="E114" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="C115" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D115" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="E115" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="C116" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D116" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E116" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="C117" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="D117" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E117" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="C118" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="D118" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E118" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="C119" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D119" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E119" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="C120" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D120" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="E120" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="C121" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="D121" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="E121" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="C122" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="D122" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="E122" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="C123" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D123" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E123" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="C124" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D124" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E124" s="28">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="C125" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D125" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="E125" s="28">
-        <v>2021</v>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A67:B69">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4061,15 +4053,15 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -4107,7 +4099,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -4145,7 +4137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -4169,17 +4161,17 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -4205,7 +4197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -4231,7 +4223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="G3" s="3" t="s">
         <v>72</v>
       </c>
@@ -4239,4 +4231,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D29148-11D8-4947-94EC-B1A148018DFE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documentation/CSAT Feedback Structure for DB.xlsx
+++ b/documentation/CSAT Feedback Structure for DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\WEBSITE_PROJECTS\_REPOS\_ASP.NET\CustomerFeedback\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2284D60-5E71-4C83-85DA-DDDB5F191F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ED963E-24BF-45C5-8B30-DA85D05AF1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="1410" windowWidth="14010" windowHeight="8565" firstSheet="1" activeTab="2" xr2:uid="{65A720A9-0869-47F5-982B-4C93D77E8D45}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" firstSheet="1" activeTab="1" xr2:uid="{65A720A9-0869-47F5-982B-4C93D77E8D45}"/>
   </bookViews>
   <sheets>
     <sheet name="Survey Tracking and Scheduling" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1519,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E587CC-8B7F-4D6B-A6D2-CE9BBF242BFF}">
   <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3278,8 +3277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB032CAA-BD0C-4DC9-A38A-BDE275360C9C}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
